--- a/dsproblems/leetcode/bin/comp.xlsx
+++ b/dsproblems/leetcode/bin/comp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I353174\Desktop\project_I\dsproblems\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66CB396-736D-4D74-9F14-191EF9A67010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB382805-29F3-4C33-8206-6B73976F37F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FD1DF6AA-5D6F-4B80-9773-ECBBC473985F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="113">
   <si>
     <t>Uber</t>
   </si>
@@ -367,6 +367,12 @@
   </si>
   <si>
     <t xml:space="preserve"> Games24x7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Media.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rippling</t>
   </si>
 </sst>
 </file>
@@ -747,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB2EF53-C4A0-4C0B-8F27-10A17BAB1CAD}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -766,7 +772,7 @@
     <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -792,7 +798,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
@@ -818,7 +824,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>36</v>
       </c>
@@ -844,7 +850,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>43</v>
       </c>
@@ -870,7 +876,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
@@ -896,13 +902,16 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C6" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="F6" s="2" t="s">
         <v>56</v>
       </c>
@@ -913,7 +922,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>59</v>
       </c>
@@ -927,7 +936,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>62</v>
       </c>
@@ -941,7 +950,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>65</v>
       </c>
@@ -955,7 +964,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>68</v>
       </c>
@@ -966,7 +975,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
@@ -974,7 +983,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
@@ -982,7 +991,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -990,17 +999,41 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="3" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" s="3" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
@@ -1023,136 +1056,289 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="C23" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>110</v>
       </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
